--- a/data/T=2 파도만.xlsx
+++ b/data/T=2 파도만.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\goood\Documents\wave\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0189E981-20F6-438D-81FE-35EB743622A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1D29DE0-C53D-44EE-B28C-8536436B9901}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2268" yWindow="2268" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="T=2 파도만" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -173,7 +173,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$1</c:f>
+              <c:f>'T=2 파도만'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -206,10 +206,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$122</c:f>
+              <c:f>'T=2 파도만'!$A$2:$A$121</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="121"/>
+                <c:ptCount val="120"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -569,381 +569,375 @@
                 </c:pt>
                 <c:pt idx="119">
                   <c:v>59.5</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>60</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$122</c:f>
+              <c:f>'T=2 파도만'!$C$2:$C$121</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="121"/>
+                <c:ptCount val="120"/>
                 <c:pt idx="0">
-                  <c:v>6.9886628358440748E-5</c:v>
+                  <c:v>4.5649049239127569E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.6401615157633167E-4</c:v>
+                  <c:v>5.7101695809267612E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.5530361857431281E-4</c:v>
+                  <c:v>5.8591792599625499E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.2424289485945021E-4</c:v>
+                  <c:v>5.9132447187277483E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.397732567168815E-4</c:v>
+                  <c:v>5.250942848854076E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.7083398043174399E-4</c:v>
+                  <c:v>5.4042382044993009E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.4072060879018481E-4</c:v>
+                  <c:v>5.3073159796397387E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.2121447429725116E-5</c:v>
+                  <c:v>5.0725927684152218E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.009473520733033E-4</c:v>
+                  <c:v>5.49258907613999E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.5530361857431281E-4</c:v>
+                  <c:v>5.1128121950576262E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.164777139307346E-4</c:v>
+                  <c:v>5.1068781812907138E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.009473520733033E-4</c:v>
+                  <c:v>5.3781944774111877E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.009473520733033E-4</c:v>
+                  <c:v>5.7444549938022532E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.8825904643578203E-5</c:v>
+                  <c:v>6.0520347073871883E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.087125330020189E-4</c:v>
+                  <c:v>5.6033573331223462E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.0965988507532231E-4</c:v>
+                  <c:v>5.345887069124667E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.4753843764559721E-4</c:v>
+                  <c:v>5.2789645805311598E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.8825904643578203E-5</c:v>
+                  <c:v>5.3979745233008941E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.3200807578816589E-4</c:v>
+                  <c:v>5.1612733074874073E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.397732567168815E-4</c:v>
+                  <c:v>5.8568715879420842E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7.7651809287156392E-5</c:v>
+                  <c:v>5.2021520689927998E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.009473520733033E-4</c:v>
+                  <c:v>5.4942374132974647E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.329554278614692E-5</c:v>
+                  <c:v>4.7360023208587183E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.164777139307346E-4</c:v>
+                  <c:v>4.9888572408154648E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5.4356266501009472E-5</c:v>
+                  <c:v>4.7498483529815123E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.9412952321789099E-4</c:v>
+                  <c:v>5.3452277342616768E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3.1060723714862562E-4</c:v>
+                  <c:v>5.4856660600785929E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.009473520733033E-4</c:v>
+                  <c:v>5.547643537199673E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3.8825904643578203E-5</c:v>
+                  <c:v>5.0099559564311523E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.5530361857431281E-4</c:v>
+                  <c:v>5.1470976079331168E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.6306879950302839E-4</c:v>
+                  <c:v>4.9677585251997787E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>7.7651809287156392E-5</c:v>
+                  <c:v>5.4289632618614338E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>6.2121447429725116E-5</c:v>
+                  <c:v>5.0838014610860557E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>5.4356266501009472E-5</c:v>
+                  <c:v>4.9628135137273523E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.397732567168815E-4</c:v>
+                  <c:v>5.3663264498773643E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>6.9886628358440748E-5</c:v>
+                  <c:v>5.0425930321491681E-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.087125330020189E-4</c:v>
+                  <c:v>5.1962180552258881E-2</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>7.7651809287156392E-5</c:v>
+                  <c:v>5.4147875623071447E-2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.5530361857431281E-4</c:v>
+                  <c:v>5.7817074135611997E-2</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.8636434228917531E-4</c:v>
+                  <c:v>4.9509454861935281E-2</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.009473520733033E-4</c:v>
+                  <c:v>5.3910515072394971E-2</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>2.5625097064761612E-4</c:v>
+                  <c:v>5.7180815992826442E-2</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>6.2121447429725116E-5</c:v>
+                  <c:v>5.1754490070416957E-2</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.397732567168815E-4</c:v>
+                  <c:v>5.2776459108051788E-2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>7.7651809287156392E-5</c:v>
+                  <c:v>5.2654482158398609E-2</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>4.6591085572293827E-5</c:v>
+                  <c:v>4.9638025160218369E-2</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>6.9886628358440748E-5</c:v>
+                  <c:v>5.4589629981274888E-2</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.3200807578816589E-4</c:v>
+                  <c:v>5.2674262204288308E-2</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1.009473520733033E-4</c:v>
+                  <c:v>5.5990716565129099E-2</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.2424289485945021E-4</c:v>
+                  <c:v>4.8312762085608037E-2</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.6306879950302839E-4</c:v>
+                  <c:v>5.6752248331882797E-2</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>5.4356266501009472E-5</c:v>
+                  <c:v>5.3343487090223379E-2</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1.087125330020189E-4</c:v>
+                  <c:v>5.2288551309439039E-2</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1.4753843764559721E-4</c:v>
+                  <c:v>5.4306115990189099E-2</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1.785991613604597E-4</c:v>
+                  <c:v>5.382809821452119E-2</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>2.2519024693275349E-4</c:v>
+                  <c:v>5.7925864388005378E-2</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>3.8825904643578203E-5</c:v>
+                  <c:v>5.3752274705277318E-2</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1.6306879950302839E-4</c:v>
+                  <c:v>5.6013793285333763E-2</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>7.7651809287156392E-5</c:v>
+                  <c:v>5.3386343856317749E-2</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>7.7651809287156392E-5</c:v>
+                  <c:v>5.6369834111348473E-2</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>5.4356266501009472E-5</c:v>
+                  <c:v>5.1045705092702481E-2</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1.397732567168815E-4</c:v>
+                  <c:v>5.0936914840309093E-2</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>2.018947041466066E-4</c:v>
+                  <c:v>4.8523749241764898E-2</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>8.5416990215872023E-5</c:v>
+                  <c:v>5.5651159110689137E-2</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>6.2121447429725116E-5</c:v>
+                  <c:v>5.2585251997784632E-2</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>3.8825904643578203E-5</c:v>
+                  <c:v>5.2588548672099583E-2</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1.009473520733033E-4</c:v>
+                  <c:v>5.4114908879921937E-2</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>2.8731169436247859E-4</c:v>
+                  <c:v>5.1883060368700058E-2</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>9.3182171144587668E-5</c:v>
+                  <c:v>5.9640135031779937E-2</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>5.2803230315266346E-4</c:v>
+                  <c:v>6.11994619827518E-2</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>2.0965988507532231E-4</c:v>
+                  <c:v>6.5030197536724954E-2</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>5.4356266501009472E-5</c:v>
+                  <c:v>5.6050056702798223E-2</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>6.9886628358440748E-5</c:v>
+                  <c:v>5.7846744204446562E-2</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>6.2121447429725116E-5</c:v>
+                  <c:v>5.0969881583458609E-2</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>1.4753843764559721E-4</c:v>
+                  <c:v>5.8156631590051959E-2</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>6.9886628358440748E-5</c:v>
+                  <c:v>5.5970936519239393E-2</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>1.5530361857431281E-4</c:v>
+                  <c:v>5.7385209800353401E-2</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>1.3200807578816589E-4</c:v>
+                  <c:v>5.7790700741092389E-2</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>1.785991613604597E-4</c:v>
+                  <c:v>5.6445657620592338E-2</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>1.3200807578816589E-4</c:v>
+                  <c:v>5.5875332964105809E-2</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>1.7083398043174399E-4</c:v>
+                  <c:v>5.4790727114486897E-2</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>1.9412952321789099E-4</c:v>
+                  <c:v>6.053353377113168E-2</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>3.4166796086348809E-4</c:v>
+                  <c:v>5.8328058654429409E-2</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>1.785991613604597E-4</c:v>
+                  <c:v>5.9587388242740721E-2</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>4.6591085572293827E-5</c:v>
+                  <c:v>5.5581928950075167E-2</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>1.087125330020189E-4</c:v>
+                  <c:v>5.6673128148323967E-2</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>1.087125330020189E-4</c:v>
+                  <c:v>5.3359970461798141E-2</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>1.397732567168815E-4</c:v>
+                  <c:v>5.6834665189756571E-2</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>5.4356266501009472E-5</c:v>
+                  <c:v>5.753026347021125E-2</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>6.2121447429725116E-5</c:v>
+                  <c:v>6.1219242028641513E-2</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>1.2424289485945021E-4</c:v>
+                  <c:v>5.5502808766516337E-2</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>1.009473520733033E-4</c:v>
+                  <c:v>5.657752459319039E-2</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>1.9412952321789099E-4</c:v>
+                  <c:v>5.3534694200490548E-2</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>2.1742506600403789E-4</c:v>
+                  <c:v>5.5964343170609492E-2</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>2.1742506600403789E-4</c:v>
+                  <c:v>5.7404989846243107E-2</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>1.4753843764559721E-4</c:v>
+                  <c:v>5.4187435714850858E-2</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>4.6591085572293827E-5</c:v>
+                  <c:v>5.7998391222934313E-2</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>1.164777139307346E-4</c:v>
+                  <c:v>5.7134662552417122E-2</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>1.164777139307346E-4</c:v>
+                  <c:v>6.1997257166969959E-2</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>7.7651809287156392E-5</c:v>
+                  <c:v>6.3025819553234691E-2</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>1.3200807578816589E-4</c:v>
+                  <c:v>5.7988501199989453E-2</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>1.087125330020189E-4</c:v>
+                  <c:v>5.3231400163515047E-2</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>1.8636434228917531E-4</c:v>
+                  <c:v>5.892805337975051E-2</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>1.009473520733033E-4</c:v>
+                  <c:v>5.1632513120763772E-2</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>6.9886628358440748E-5</c:v>
+                  <c:v>5.8199488356146321E-2</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>1.3200807578816589E-4</c:v>
+                  <c:v>5.4648970118944012E-2</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>7.7651809287156392E-5</c:v>
+                  <c:v>5.9613761637260329E-2</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>3.2613759900605678E-4</c:v>
+                  <c:v>5.407864546245747E-2</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>7.7651809287156392E-5</c:v>
+                  <c:v>5.7213782735975938E-2</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>1.087125330020189E-4</c:v>
+                  <c:v>5.5248964844265107E-2</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>3.8825904643578203E-5</c:v>
+                  <c:v>5.6861038584276193E-2</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>1.009473520733033E-4</c:v>
+                  <c:v>5.4352269430598413E-2</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>7.7651809287156392E-5</c:v>
+                  <c:v>4.9585278371179153E-2</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>1.087125330020189E-4</c:v>
+                  <c:v>5.0050109449587259E-2</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>1.9412952321789099E-4</c:v>
+                  <c:v>5.815003824142205E-2</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>1.5530361857431279E-5</c:v>
+                  <c:v>5.7223672758920797E-2</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>2.0965988507532231E-4</c:v>
+                  <c:v>5.6504997758261469E-2</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>4.6591085572293827E-5</c:v>
+                  <c:v>5.3630297755624133E-2</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>1.164777139307346E-4</c:v>
+                  <c:v>5.1609436400559122E-2</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>1.164777139307346E-4</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>5.4356266501009472E-5</c:v>
+                  <c:v>5.1569876308779697E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -951,7 +945,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4F57-4947-825B-4FAAA31E554C}"/>
+              <c16:uniqueId val="{00000000-575D-49F0-A935-57A70438023C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -963,11 +957,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1259673711"/>
-        <c:axId val="1259674191"/>
+        <c:axId val="1117873487"/>
+        <c:axId val="1117873967"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1259673711"/>
+        <c:axId val="1117873487"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1024,12 +1018,12 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1259674191"/>
+        <c:crossAx val="1117873967"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1259674191"/>
+        <c:axId val="1117873967"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1086,7 +1080,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1259673711"/>
+        <c:crossAx val="1117873487"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1734,26 +1728,28 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>582930</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>548640</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="차트 1">
+        <xdr:cNvPr id="3" name="차트 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{244C2CA9-F4FB-90FD-6445-61DC434E6BA9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F371CBAA-FAE1-4E28-9FA7-B58C031FF30B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -2055,10 +2051,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D122"/>
+  <dimension ref="A1:D121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S9" sqref="S9"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2082,13 +2078,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>9</v>
+        <v>13847</v>
       </c>
       <c r="C2">
-        <v>6.9886628358440748E-5</v>
+        <v>4.5649049239127569E-2</v>
       </c>
       <c r="D2">
-        <v>128780</v>
+        <v>303336</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
@@ -2096,13 +2092,13 @@
         <v>0.5</v>
       </c>
       <c r="B3">
-        <v>34</v>
+        <v>17321</v>
       </c>
       <c r="C3">
-        <v>2.6401615157633167E-4</v>
+        <v>5.7101695809267612E-2</v>
       </c>
       <c r="D3">
-        <v>128780</v>
+        <v>303336</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
@@ -2110,13 +2106,13 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>20</v>
+        <v>17773</v>
       </c>
       <c r="C4">
-        <v>1.5530361857431281E-4</v>
+        <v>5.8591792599625499E-2</v>
       </c>
       <c r="D4">
-        <v>128780</v>
+        <v>303336</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
@@ -2124,13 +2120,13 @@
         <v>1.5</v>
       </c>
       <c r="B5">
-        <v>16</v>
+        <v>17937</v>
       </c>
       <c r="C5">
-        <v>1.2424289485945021E-4</v>
+        <v>5.9132447187277483E-2</v>
       </c>
       <c r="D5">
-        <v>128780</v>
+        <v>303336</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
@@ -2138,13 +2134,13 @@
         <v>2</v>
       </c>
       <c r="B6">
-        <v>18</v>
+        <v>15928</v>
       </c>
       <c r="C6">
-        <v>1.397732567168815E-4</v>
+        <v>5.250942848854076E-2</v>
       </c>
       <c r="D6">
-        <v>128780</v>
+        <v>303336</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
@@ -2152,13 +2148,13 @@
         <v>2.5</v>
       </c>
       <c r="B7">
-        <v>22</v>
+        <v>16393</v>
       </c>
       <c r="C7">
-        <v>1.7083398043174399E-4</v>
+        <v>5.4042382044993009E-2</v>
       </c>
       <c r="D7">
-        <v>128780</v>
+        <v>303336</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
@@ -2166,13 +2162,13 @@
         <v>3</v>
       </c>
       <c r="B8">
-        <v>31</v>
+        <v>16099</v>
       </c>
       <c r="C8">
-        <v>2.4072060879018481E-4</v>
+        <v>5.3073159796397387E-2</v>
       </c>
       <c r="D8">
-        <v>128780</v>
+        <v>303336</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
@@ -2180,13 +2176,13 @@
         <v>3.5</v>
       </c>
       <c r="B9">
-        <v>8</v>
+        <v>15387</v>
       </c>
       <c r="C9">
-        <v>6.2121447429725116E-5</v>
+        <v>5.0725927684152218E-2</v>
       </c>
       <c r="D9">
-        <v>128780</v>
+        <v>303336</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
@@ -2194,13 +2190,13 @@
         <v>4</v>
       </c>
       <c r="B10">
-        <v>13</v>
+        <v>16661</v>
       </c>
       <c r="C10">
-        <v>1.009473520733033E-4</v>
+        <v>5.49258907613999E-2</v>
       </c>
       <c r="D10">
-        <v>128780</v>
+        <v>303336</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
@@ -2208,13 +2204,13 @@
         <v>4.5</v>
       </c>
       <c r="B11">
-        <v>20</v>
+        <v>15509</v>
       </c>
       <c r="C11">
-        <v>1.5530361857431281E-4</v>
+        <v>5.1128121950576262E-2</v>
       </c>
       <c r="D11">
-        <v>128780</v>
+        <v>303336</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
@@ -2222,13 +2218,13 @@
         <v>5</v>
       </c>
       <c r="B12">
-        <v>15</v>
+        <v>15491</v>
       </c>
       <c r="C12">
-        <v>1.164777139307346E-4</v>
+        <v>5.1068781812907138E-2</v>
       </c>
       <c r="D12">
-        <v>128780</v>
+        <v>303336</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
@@ -2236,13 +2232,13 @@
         <v>5.5</v>
       </c>
       <c r="B13">
-        <v>13</v>
+        <v>16314</v>
       </c>
       <c r="C13">
-        <v>1.009473520733033E-4</v>
+        <v>5.3781944774111877E-2</v>
       </c>
       <c r="D13">
-        <v>128780</v>
+        <v>303336</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.4">
@@ -2250,13 +2246,13 @@
         <v>6</v>
       </c>
       <c r="B14">
-        <v>13</v>
+        <v>17425</v>
       </c>
       <c r="C14">
-        <v>1.009473520733033E-4</v>
+        <v>5.7444549938022532E-2</v>
       </c>
       <c r="D14">
-        <v>128780</v>
+        <v>303336</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.4">
@@ -2264,13 +2260,13 @@
         <v>6.5</v>
       </c>
       <c r="B15">
-        <v>5</v>
+        <v>18358</v>
       </c>
       <c r="C15">
-        <v>3.8825904643578203E-5</v>
+        <v>6.0520347073871883E-2</v>
       </c>
       <c r="D15">
-        <v>128780</v>
+        <v>303336</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.4">
@@ -2278,13 +2274,13 @@
         <v>7</v>
       </c>
       <c r="B16">
-        <v>14</v>
+        <v>16997</v>
       </c>
       <c r="C16">
-        <v>1.087125330020189E-4</v>
+        <v>5.6033573331223462E-2</v>
       </c>
       <c r="D16">
-        <v>128780</v>
+        <v>303336</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.4">
@@ -2292,13 +2288,13 @@
         <v>7.5</v>
       </c>
       <c r="B17">
-        <v>27</v>
+        <v>16216</v>
       </c>
       <c r="C17">
-        <v>2.0965988507532231E-4</v>
+        <v>5.345887069124667E-2</v>
       </c>
       <c r="D17">
-        <v>128780</v>
+        <v>303336</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.4">
@@ -2306,13 +2302,13 @@
         <v>8</v>
       </c>
       <c r="B18">
-        <v>19</v>
+        <v>16013</v>
       </c>
       <c r="C18">
-        <v>1.4753843764559721E-4</v>
+        <v>5.2789645805311598E-2</v>
       </c>
       <c r="D18">
-        <v>128780</v>
+        <v>303336</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.4">
@@ -2320,13 +2316,13 @@
         <v>8.5</v>
       </c>
       <c r="B19">
-        <v>5</v>
+        <v>16374</v>
       </c>
       <c r="C19">
-        <v>3.8825904643578203E-5</v>
+        <v>5.3979745233008941E-2</v>
       </c>
       <c r="D19">
-        <v>128780</v>
+        <v>303336</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.4">
@@ -2334,13 +2330,13 @@
         <v>9</v>
       </c>
       <c r="B20">
-        <v>17</v>
+        <v>15656</v>
       </c>
       <c r="C20">
-        <v>1.3200807578816589E-4</v>
+        <v>5.1612733074874073E-2</v>
       </c>
       <c r="D20">
-        <v>128780</v>
+        <v>303336</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.4">
@@ -2348,13 +2344,13 @@
         <v>9.5</v>
       </c>
       <c r="B21">
-        <v>18</v>
+        <v>17766</v>
       </c>
       <c r="C21">
-        <v>1.397732567168815E-4</v>
+        <v>5.8568715879420842E-2</v>
       </c>
       <c r="D21">
-        <v>128780</v>
+        <v>303336</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.4">
@@ -2362,13 +2358,13 @@
         <v>10</v>
       </c>
       <c r="B22">
-        <v>10</v>
+        <v>15780</v>
       </c>
       <c r="C22">
-        <v>7.7651809287156392E-5</v>
+        <v>5.2021520689927998E-2</v>
       </c>
       <c r="D22">
-        <v>128780</v>
+        <v>303336</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.4">
@@ -2376,13 +2372,13 @@
         <v>10.5</v>
       </c>
       <c r="B23">
-        <v>13</v>
+        <v>16666</v>
       </c>
       <c r="C23">
-        <v>1.009473520733033E-4</v>
+        <v>5.4942374132974647E-2</v>
       </c>
       <c r="D23">
-        <v>128780</v>
+        <v>303336</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.4">
@@ -2390,13 +2386,13 @@
         <v>11</v>
       </c>
       <c r="B24">
-        <v>3</v>
+        <v>14366</v>
       </c>
       <c r="C24">
-        <v>2.329554278614692E-5</v>
+        <v>4.7360023208587183E-2</v>
       </c>
       <c r="D24">
-        <v>128780</v>
+        <v>303336</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.4">
@@ -2404,13 +2400,13 @@
         <v>11.5</v>
       </c>
       <c r="B25">
-        <v>15</v>
+        <v>15133</v>
       </c>
       <c r="C25">
-        <v>1.164777139307346E-4</v>
+        <v>4.9888572408154648E-2</v>
       </c>
       <c r="D25">
-        <v>128780</v>
+        <v>303336</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.4">
@@ -2418,13 +2414,13 @@
         <v>12</v>
       </c>
       <c r="B26">
-        <v>7</v>
+        <v>14408</v>
       </c>
       <c r="C26">
-        <v>5.4356266501009472E-5</v>
+        <v>4.7498483529815123E-2</v>
       </c>
       <c r="D26">
-        <v>128780</v>
+        <v>303336</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.4">
@@ -2432,13 +2428,13 @@
         <v>12.5</v>
       </c>
       <c r="B27">
-        <v>25</v>
+        <v>16214</v>
       </c>
       <c r="C27">
-        <v>1.9412952321789099E-4</v>
+        <v>5.3452277342616768E-2</v>
       </c>
       <c r="D27">
-        <v>128780</v>
+        <v>303336</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.4">
@@ -2446,13 +2442,13 @@
         <v>13</v>
       </c>
       <c r="B28">
-        <v>40</v>
+        <v>16640</v>
       </c>
       <c r="C28">
-        <v>3.1060723714862562E-4</v>
+        <v>5.4856660600785929E-2</v>
       </c>
       <c r="D28">
-        <v>128780</v>
+        <v>303336</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.4">
@@ -2460,13 +2456,13 @@
         <v>13.5</v>
       </c>
       <c r="B29">
-        <v>13</v>
+        <v>16828</v>
       </c>
       <c r="C29">
-        <v>1.009473520733033E-4</v>
+        <v>5.547643537199673E-2</v>
       </c>
       <c r="D29">
-        <v>128780</v>
+        <v>303336</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.4">
@@ -2474,13 +2470,13 @@
         <v>14</v>
       </c>
       <c r="B30">
-        <v>5</v>
+        <v>15197</v>
       </c>
       <c r="C30">
-        <v>3.8825904643578203E-5</v>
+        <v>5.0099559564311523E-2</v>
       </c>
       <c r="D30">
-        <v>128780</v>
+        <v>303336</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.4">
@@ -2488,13 +2484,13 @@
         <v>14.5</v>
       </c>
       <c r="B31">
-        <v>20</v>
+        <v>15613</v>
       </c>
       <c r="C31">
-        <v>1.5530361857431281E-4</v>
+        <v>5.1470976079331168E-2</v>
       </c>
       <c r="D31">
-        <v>128780</v>
+        <v>303336</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.4">
@@ -2502,13 +2498,13 @@
         <v>15</v>
       </c>
       <c r="B32">
-        <v>21</v>
+        <v>15069</v>
       </c>
       <c r="C32">
-        <v>1.6306879950302839E-4</v>
+        <v>4.9677585251997787E-2</v>
       </c>
       <c r="D32">
-        <v>128780</v>
+        <v>303336</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.4">
@@ -2516,13 +2512,13 @@
         <v>15.5</v>
       </c>
       <c r="B33">
-        <v>10</v>
+        <v>16468</v>
       </c>
       <c r="C33">
-        <v>7.7651809287156392E-5</v>
+        <v>5.4289632618614338E-2</v>
       </c>
       <c r="D33">
-        <v>128780</v>
+        <v>303336</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.4">
@@ -2530,13 +2526,13 @@
         <v>16</v>
       </c>
       <c r="B34">
-        <v>8</v>
+        <v>15421</v>
       </c>
       <c r="C34">
-        <v>6.2121447429725116E-5</v>
+        <v>5.0838014610860557E-2</v>
       </c>
       <c r="D34">
-        <v>128780</v>
+        <v>303336</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.4">
@@ -2544,13 +2540,13 @@
         <v>16.5</v>
       </c>
       <c r="B35">
-        <v>7</v>
+        <v>15054</v>
       </c>
       <c r="C35">
-        <v>5.4356266501009472E-5</v>
+        <v>4.9628135137273523E-2</v>
       </c>
       <c r="D35">
-        <v>128780</v>
+        <v>303336</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.4">
@@ -2558,13 +2554,13 @@
         <v>17</v>
       </c>
       <c r="B36">
-        <v>18</v>
+        <v>16278</v>
       </c>
       <c r="C36">
-        <v>1.397732567168815E-4</v>
+        <v>5.3663264498773643E-2</v>
       </c>
       <c r="D36">
-        <v>128780</v>
+        <v>303336</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.4">
@@ -2572,13 +2568,13 @@
         <v>17.5</v>
       </c>
       <c r="B37">
-        <v>9</v>
+        <v>15296</v>
       </c>
       <c r="C37">
-        <v>6.9886628358440748E-5</v>
+        <v>5.0425930321491681E-2</v>
       </c>
       <c r="D37">
-        <v>128780</v>
+        <v>303336</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.4">
@@ -2586,13 +2582,13 @@
         <v>18</v>
       </c>
       <c r="B38">
-        <v>14</v>
+        <v>15762</v>
       </c>
       <c r="C38">
-        <v>1.087125330020189E-4</v>
+        <v>5.1962180552258881E-2</v>
       </c>
       <c r="D38">
-        <v>128780</v>
+        <v>303336</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.4">
@@ -2600,13 +2596,13 @@
         <v>18.5</v>
       </c>
       <c r="B39">
-        <v>10</v>
+        <v>16425</v>
       </c>
       <c r="C39">
-        <v>7.7651809287156392E-5</v>
+        <v>5.4147875623071447E-2</v>
       </c>
       <c r="D39">
-        <v>128780</v>
+        <v>303336</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.4">
@@ -2614,13 +2610,13 @@
         <v>19</v>
       </c>
       <c r="B40">
-        <v>20</v>
+        <v>17538</v>
       </c>
       <c r="C40">
-        <v>1.5530361857431281E-4</v>
+        <v>5.7817074135611997E-2</v>
       </c>
       <c r="D40">
-        <v>128780</v>
+        <v>303336</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.4">
@@ -2628,13 +2624,13 @@
         <v>19.5</v>
       </c>
       <c r="B41">
-        <v>24</v>
+        <v>15018</v>
       </c>
       <c r="C41">
-        <v>1.8636434228917531E-4</v>
+        <v>4.9509454861935281E-2</v>
       </c>
       <c r="D41">
-        <v>128780</v>
+        <v>303336</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.4">
@@ -2642,13 +2638,13 @@
         <v>20</v>
       </c>
       <c r="B42">
-        <v>13</v>
+        <v>16353</v>
       </c>
       <c r="C42">
-        <v>1.009473520733033E-4</v>
+        <v>5.3910515072394971E-2</v>
       </c>
       <c r="D42">
-        <v>128780</v>
+        <v>303336</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.4">
@@ -2656,13 +2652,13 @@
         <v>20.5</v>
       </c>
       <c r="B43">
-        <v>33</v>
+        <v>17345</v>
       </c>
       <c r="C43">
-        <v>2.5625097064761612E-4</v>
+        <v>5.7180815992826442E-2</v>
       </c>
       <c r="D43">
-        <v>128780</v>
+        <v>303336</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.4">
@@ -2670,13 +2666,13 @@
         <v>21</v>
       </c>
       <c r="B44">
-        <v>8</v>
+        <v>15699</v>
       </c>
       <c r="C44">
-        <v>6.2121447429725116E-5</v>
+        <v>5.1754490070416957E-2</v>
       </c>
       <c r="D44">
-        <v>128780</v>
+        <v>303336</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.4">
@@ -2684,13 +2680,13 @@
         <v>21.5</v>
       </c>
       <c r="B45">
-        <v>18</v>
+        <v>16009</v>
       </c>
       <c r="C45">
-        <v>1.397732567168815E-4</v>
+        <v>5.2776459108051788E-2</v>
       </c>
       <c r="D45">
-        <v>128780</v>
+        <v>303336</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.4">
@@ -2698,13 +2694,13 @@
         <v>22</v>
       </c>
       <c r="B46">
-        <v>10</v>
+        <v>15972</v>
       </c>
       <c r="C46">
-        <v>7.7651809287156392E-5</v>
+        <v>5.2654482158398609E-2</v>
       </c>
       <c r="D46">
-        <v>128780</v>
+        <v>303336</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.4">
@@ -2712,13 +2708,13 @@
         <v>22.5</v>
       </c>
       <c r="B47">
-        <v>6</v>
+        <v>15057</v>
       </c>
       <c r="C47">
-        <v>4.6591085572293827E-5</v>
+        <v>4.9638025160218369E-2</v>
       </c>
       <c r="D47">
-        <v>128780</v>
+        <v>303336</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.4">
@@ -2726,13 +2722,13 @@
         <v>23</v>
       </c>
       <c r="B48">
-        <v>9</v>
+        <v>16559</v>
       </c>
       <c r="C48">
-        <v>6.9886628358440748E-5</v>
+        <v>5.4589629981274888E-2</v>
       </c>
       <c r="D48">
-        <v>128780</v>
+        <v>303336</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.4">
@@ -2740,13 +2736,13 @@
         <v>23.5</v>
       </c>
       <c r="B49">
-        <v>17</v>
+        <v>15978</v>
       </c>
       <c r="C49">
-        <v>1.3200807578816589E-4</v>
+        <v>5.2674262204288308E-2</v>
       </c>
       <c r="D49">
-        <v>128780</v>
+        <v>303336</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.4">
@@ -2754,13 +2750,13 @@
         <v>24</v>
       </c>
       <c r="B50">
-        <v>13</v>
+        <v>16984</v>
       </c>
       <c r="C50">
-        <v>1.009473520733033E-4</v>
+        <v>5.5990716565129099E-2</v>
       </c>
       <c r="D50">
-        <v>128780</v>
+        <v>303336</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.4">
@@ -2768,13 +2764,13 @@
         <v>24.5</v>
       </c>
       <c r="B51">
-        <v>16</v>
+        <v>14655</v>
       </c>
       <c r="C51">
-        <v>1.2424289485945021E-4</v>
+        <v>4.8312762085608037E-2</v>
       </c>
       <c r="D51">
-        <v>128780</v>
+        <v>303336</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.4">
@@ -2782,13 +2778,13 @@
         <v>25</v>
       </c>
       <c r="B52">
-        <v>21</v>
+        <v>17215</v>
       </c>
       <c r="C52">
-        <v>1.6306879950302839E-4</v>
+        <v>5.6752248331882797E-2</v>
       </c>
       <c r="D52">
-        <v>128780</v>
+        <v>303336</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.4">
@@ -2796,13 +2792,13 @@
         <v>25.5</v>
       </c>
       <c r="B53">
-        <v>7</v>
+        <v>16181</v>
       </c>
       <c r="C53">
-        <v>5.4356266501009472E-5</v>
+        <v>5.3343487090223379E-2</v>
       </c>
       <c r="D53">
-        <v>128780</v>
+        <v>303336</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.4">
@@ -2810,13 +2806,13 @@
         <v>26</v>
       </c>
       <c r="B54">
-        <v>14</v>
+        <v>15861</v>
       </c>
       <c r="C54">
-        <v>1.087125330020189E-4</v>
+        <v>5.2288551309439039E-2</v>
       </c>
       <c r="D54">
-        <v>128780</v>
+        <v>303336</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.4">
@@ -2824,13 +2820,13 @@
         <v>26.5</v>
       </c>
       <c r="B55">
-        <v>19</v>
+        <v>16473</v>
       </c>
       <c r="C55">
-        <v>1.4753843764559721E-4</v>
+        <v>5.4306115990189099E-2</v>
       </c>
       <c r="D55">
-        <v>128780</v>
+        <v>303336</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.4">
@@ -2838,13 +2834,13 @@
         <v>27</v>
       </c>
       <c r="B56">
-        <v>23</v>
+        <v>16328</v>
       </c>
       <c r="C56">
-        <v>1.785991613604597E-4</v>
+        <v>5.382809821452119E-2</v>
       </c>
       <c r="D56">
-        <v>128780</v>
+        <v>303336</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.4">
@@ -2852,13 +2848,13 @@
         <v>27.5</v>
       </c>
       <c r="B57">
-        <v>29</v>
+        <v>17571</v>
       </c>
       <c r="C57">
-        <v>2.2519024693275349E-4</v>
+        <v>5.7925864388005378E-2</v>
       </c>
       <c r="D57">
-        <v>128780</v>
+        <v>303336</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.4">
@@ -2866,13 +2862,13 @@
         <v>28</v>
       </c>
       <c r="B58">
-        <v>5</v>
+        <v>16305</v>
       </c>
       <c r="C58">
-        <v>3.8825904643578203E-5</v>
+        <v>5.3752274705277318E-2</v>
       </c>
       <c r="D58">
-        <v>128780</v>
+        <v>303336</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.4">
@@ -2880,13 +2876,13 @@
         <v>28.5</v>
       </c>
       <c r="B59">
-        <v>21</v>
+        <v>16991</v>
       </c>
       <c r="C59">
-        <v>1.6306879950302839E-4</v>
+        <v>5.6013793285333763E-2</v>
       </c>
       <c r="D59">
-        <v>128780</v>
+        <v>303336</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.4">
@@ -2894,13 +2890,13 @@
         <v>29</v>
       </c>
       <c r="B60">
-        <v>10</v>
+        <v>16194</v>
       </c>
       <c r="C60">
-        <v>7.7651809287156392E-5</v>
+        <v>5.3386343856317749E-2</v>
       </c>
       <c r="D60">
-        <v>128780</v>
+        <v>303336</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.4">
@@ -2908,13 +2904,13 @@
         <v>29.5</v>
       </c>
       <c r="B61">
-        <v>10</v>
+        <v>17099</v>
       </c>
       <c r="C61">
-        <v>7.7651809287156392E-5</v>
+        <v>5.6369834111348473E-2</v>
       </c>
       <c r="D61">
-        <v>128780</v>
+        <v>303336</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.4">
@@ -2922,13 +2918,13 @@
         <v>30</v>
       </c>
       <c r="B62">
-        <v>7</v>
+        <v>15484</v>
       </c>
       <c r="C62">
-        <v>5.4356266501009472E-5</v>
+        <v>5.1045705092702481E-2</v>
       </c>
       <c r="D62">
-        <v>128780</v>
+        <v>303336</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.4">
@@ -2936,13 +2932,13 @@
         <v>30.5</v>
       </c>
       <c r="B63">
-        <v>18</v>
+        <v>15451</v>
       </c>
       <c r="C63">
-        <v>1.397732567168815E-4</v>
+        <v>5.0936914840309093E-2</v>
       </c>
       <c r="D63">
-        <v>128780</v>
+        <v>303336</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.4">
@@ -2950,13 +2946,13 @@
         <v>31</v>
       </c>
       <c r="B64">
-        <v>26</v>
+        <v>14719</v>
       </c>
       <c r="C64">
-        <v>2.018947041466066E-4</v>
+        <v>4.8523749241764898E-2</v>
       </c>
       <c r="D64">
-        <v>128780</v>
+        <v>303336</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.4">
@@ -2964,13 +2960,13 @@
         <v>31.5</v>
       </c>
       <c r="B65">
-        <v>11</v>
+        <v>16881</v>
       </c>
       <c r="C65">
-        <v>8.5416990215872023E-5</v>
+        <v>5.5651159110689137E-2</v>
       </c>
       <c r="D65">
-        <v>128780</v>
+        <v>303336</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.4">
@@ -2978,13 +2974,13 @@
         <v>32</v>
       </c>
       <c r="B66">
-        <v>8</v>
+        <v>15951</v>
       </c>
       <c r="C66">
-        <v>6.2121447429725116E-5</v>
+        <v>5.2585251997784632E-2</v>
       </c>
       <c r="D66">
-        <v>128780</v>
+        <v>303336</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.4">
@@ -2992,13 +2988,13 @@
         <v>32.5</v>
       </c>
       <c r="B67">
-        <v>5</v>
+        <v>15952</v>
       </c>
       <c r="C67">
-        <v>3.8825904643578203E-5</v>
+        <v>5.2588548672099583E-2</v>
       </c>
       <c r="D67">
-        <v>128780</v>
+        <v>303336</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.4">
@@ -3006,13 +3002,13 @@
         <v>33</v>
       </c>
       <c r="B68">
-        <v>13</v>
+        <v>16415</v>
       </c>
       <c r="C68">
-        <v>1.009473520733033E-4</v>
+        <v>5.4114908879921937E-2</v>
       </c>
       <c r="D68">
-        <v>128780</v>
+        <v>303336</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.4">
@@ -3020,13 +3016,13 @@
         <v>33.5</v>
       </c>
       <c r="B69">
-        <v>37</v>
+        <v>15738</v>
       </c>
       <c r="C69">
-        <v>2.8731169436247859E-4</v>
+        <v>5.1883060368700058E-2</v>
       </c>
       <c r="D69">
-        <v>128780</v>
+        <v>303336</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.4">
@@ -3034,13 +3030,13 @@
         <v>34</v>
       </c>
       <c r="B70">
-        <v>12</v>
+        <v>18091</v>
       </c>
       <c r="C70">
-        <v>9.3182171144587668E-5</v>
+        <v>5.9640135031779937E-2</v>
       </c>
       <c r="D70">
-        <v>128780</v>
+        <v>303336</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.4">
@@ -3048,13 +3044,13 @@
         <v>34.5</v>
       </c>
       <c r="B71">
-        <v>68</v>
+        <v>18564</v>
       </c>
       <c r="C71">
-        <v>5.2803230315266346E-4</v>
+        <v>6.11994619827518E-2</v>
       </c>
       <c r="D71">
-        <v>128780</v>
+        <v>303336</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.4">
@@ -3062,13 +3058,13 @@
         <v>35</v>
       </c>
       <c r="B72">
-        <v>27</v>
+        <v>19726</v>
       </c>
       <c r="C72">
-        <v>2.0965988507532231E-4</v>
+        <v>6.5030197536724954E-2</v>
       </c>
       <c r="D72">
-        <v>128780</v>
+        <v>303336</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.4">
@@ -3076,13 +3072,13 @@
         <v>35.5</v>
       </c>
       <c r="B73">
-        <v>7</v>
+        <v>17002</v>
       </c>
       <c r="C73">
-        <v>5.4356266501009472E-5</v>
+        <v>5.6050056702798223E-2</v>
       </c>
       <c r="D73">
-        <v>128780</v>
+        <v>303336</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.4">
@@ -3090,13 +3086,13 @@
         <v>36</v>
       </c>
       <c r="B74">
-        <v>9</v>
+        <v>17547</v>
       </c>
       <c r="C74">
-        <v>6.9886628358440748E-5</v>
+        <v>5.7846744204446562E-2</v>
       </c>
       <c r="D74">
-        <v>128780</v>
+        <v>303336</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.4">
@@ -3104,13 +3100,13 @@
         <v>36.5</v>
       </c>
       <c r="B75">
-        <v>8</v>
+        <v>15461</v>
       </c>
       <c r="C75">
-        <v>6.2121447429725116E-5</v>
+        <v>5.0969881583458609E-2</v>
       </c>
       <c r="D75">
-        <v>128780</v>
+        <v>303336</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.4">
@@ -3118,13 +3114,13 @@
         <v>37</v>
       </c>
       <c r="B76">
-        <v>19</v>
+        <v>17641</v>
       </c>
       <c r="C76">
-        <v>1.4753843764559721E-4</v>
+        <v>5.8156631590051959E-2</v>
       </c>
       <c r="D76">
-        <v>128780</v>
+        <v>303336</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.4">
@@ -3132,13 +3128,13 @@
         <v>37.5</v>
       </c>
       <c r="B77">
-        <v>9</v>
+        <v>16978</v>
       </c>
       <c r="C77">
-        <v>6.9886628358440748E-5</v>
+        <v>5.5970936519239393E-2</v>
       </c>
       <c r="D77">
-        <v>128780</v>
+        <v>303336</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.4">
@@ -3146,13 +3142,13 @@
         <v>38</v>
       </c>
       <c r="B78">
-        <v>20</v>
+        <v>17407</v>
       </c>
       <c r="C78">
-        <v>1.5530361857431281E-4</v>
+        <v>5.7385209800353401E-2</v>
       </c>
       <c r="D78">
-        <v>128780</v>
+        <v>303336</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.4">
@@ -3160,13 +3156,13 @@
         <v>38.5</v>
       </c>
       <c r="B79">
-        <v>17</v>
+        <v>17530</v>
       </c>
       <c r="C79">
-        <v>1.3200807578816589E-4</v>
+        <v>5.7790700741092389E-2</v>
       </c>
       <c r="D79">
-        <v>128780</v>
+        <v>303336</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.4">
@@ -3174,13 +3170,13 @@
         <v>39</v>
       </c>
       <c r="B80">
-        <v>23</v>
+        <v>17122</v>
       </c>
       <c r="C80">
-        <v>1.785991613604597E-4</v>
+        <v>5.6445657620592338E-2</v>
       </c>
       <c r="D80">
-        <v>128780</v>
+        <v>303336</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.4">
@@ -3188,13 +3184,13 @@
         <v>39.5</v>
       </c>
       <c r="B81">
-        <v>17</v>
+        <v>16949</v>
       </c>
       <c r="C81">
-        <v>1.3200807578816589E-4</v>
+        <v>5.5875332964105809E-2</v>
       </c>
       <c r="D81">
-        <v>128780</v>
+        <v>303336</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.4">
@@ -3202,13 +3198,13 @@
         <v>40</v>
       </c>
       <c r="B82">
-        <v>22</v>
+        <v>16620</v>
       </c>
       <c r="C82">
-        <v>1.7083398043174399E-4</v>
+        <v>5.4790727114486897E-2</v>
       </c>
       <c r="D82">
-        <v>128780</v>
+        <v>303336</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.4">
@@ -3216,13 +3212,13 @@
         <v>40.5</v>
       </c>
       <c r="B83">
-        <v>25</v>
+        <v>18362</v>
       </c>
       <c r="C83">
-        <v>1.9412952321789099E-4</v>
+        <v>6.053353377113168E-2</v>
       </c>
       <c r="D83">
-        <v>128780</v>
+        <v>303336</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.4">
@@ -3230,13 +3226,13 @@
         <v>41</v>
       </c>
       <c r="B84">
-        <v>44</v>
+        <v>17693</v>
       </c>
       <c r="C84">
-        <v>3.4166796086348809E-4</v>
+        <v>5.8328058654429409E-2</v>
       </c>
       <c r="D84">
-        <v>128780</v>
+        <v>303336</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.4">
@@ -3244,13 +3240,13 @@
         <v>41.5</v>
       </c>
       <c r="B85">
-        <v>23</v>
+        <v>18075</v>
       </c>
       <c r="C85">
-        <v>1.785991613604597E-4</v>
+        <v>5.9587388242740721E-2</v>
       </c>
       <c r="D85">
-        <v>128780</v>
+        <v>303336</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.4">
@@ -3258,13 +3254,13 @@
         <v>42</v>
       </c>
       <c r="B86">
-        <v>6</v>
+        <v>16860</v>
       </c>
       <c r="C86">
-        <v>4.6591085572293827E-5</v>
+        <v>5.5581928950075167E-2</v>
       </c>
       <c r="D86">
-        <v>128780</v>
+        <v>303336</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.4">
@@ -3272,13 +3268,13 @@
         <v>42.5</v>
       </c>
       <c r="B87">
-        <v>14</v>
+        <v>17191</v>
       </c>
       <c r="C87">
-        <v>1.087125330020189E-4</v>
+        <v>5.6673128148323967E-2</v>
       </c>
       <c r="D87">
-        <v>128780</v>
+        <v>303336</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.4">
@@ -3286,13 +3282,13 @@
         <v>43</v>
       </c>
       <c r="B88">
-        <v>14</v>
+        <v>16186</v>
       </c>
       <c r="C88">
-        <v>1.087125330020189E-4</v>
+        <v>5.3359970461798141E-2</v>
       </c>
       <c r="D88">
-        <v>128780</v>
+        <v>303336</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.4">
@@ -3300,13 +3296,13 @@
         <v>43.5</v>
       </c>
       <c r="B89">
-        <v>18</v>
+        <v>17240</v>
       </c>
       <c r="C89">
-        <v>1.397732567168815E-4</v>
+        <v>5.6834665189756571E-2</v>
       </c>
       <c r="D89">
-        <v>128780</v>
+        <v>303336</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.4">
@@ -3314,13 +3310,13 @@
         <v>44</v>
       </c>
       <c r="B90">
-        <v>7</v>
+        <v>17451</v>
       </c>
       <c r="C90">
-        <v>5.4356266501009472E-5</v>
+        <v>5.753026347021125E-2</v>
       </c>
       <c r="D90">
-        <v>128780</v>
+        <v>303336</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.4">
@@ -3328,13 +3324,13 @@
         <v>44.5</v>
       </c>
       <c r="B91">
-        <v>8</v>
+        <v>18570</v>
       </c>
       <c r="C91">
-        <v>6.2121447429725116E-5</v>
+        <v>6.1219242028641513E-2</v>
       </c>
       <c r="D91">
-        <v>128780</v>
+        <v>303336</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.4">
@@ -3342,13 +3338,13 @@
         <v>45</v>
       </c>
       <c r="B92">
-        <v>16</v>
+        <v>16836</v>
       </c>
       <c r="C92">
-        <v>1.2424289485945021E-4</v>
+        <v>5.5502808766516337E-2</v>
       </c>
       <c r="D92">
-        <v>128780</v>
+        <v>303336</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.4">
@@ -3356,13 +3352,13 @@
         <v>45.5</v>
       </c>
       <c r="B93">
-        <v>13</v>
+        <v>17162</v>
       </c>
       <c r="C93">
-        <v>1.009473520733033E-4</v>
+        <v>5.657752459319039E-2</v>
       </c>
       <c r="D93">
-        <v>128780</v>
+        <v>303336</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.4">
@@ -3370,13 +3366,13 @@
         <v>46</v>
       </c>
       <c r="B94">
-        <v>25</v>
+        <v>16239</v>
       </c>
       <c r="C94">
-        <v>1.9412952321789099E-4</v>
+        <v>5.3534694200490548E-2</v>
       </c>
       <c r="D94">
-        <v>128780</v>
+        <v>303336</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.4">
@@ -3384,13 +3380,13 @@
         <v>46.5</v>
       </c>
       <c r="B95">
-        <v>28</v>
+        <v>16976</v>
       </c>
       <c r="C95">
-        <v>2.1742506600403789E-4</v>
+        <v>5.5964343170609492E-2</v>
       </c>
       <c r="D95">
-        <v>128780</v>
+        <v>303336</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.4">
@@ -3398,13 +3394,13 @@
         <v>47</v>
       </c>
       <c r="B96">
-        <v>28</v>
+        <v>17413</v>
       </c>
       <c r="C96">
-        <v>2.1742506600403789E-4</v>
+        <v>5.7404989846243107E-2</v>
       </c>
       <c r="D96">
-        <v>128780</v>
+        <v>303336</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.4">
@@ -3412,13 +3408,13 @@
         <v>47.5</v>
       </c>
       <c r="B97">
-        <v>19</v>
+        <v>16437</v>
       </c>
       <c r="C97">
-        <v>1.4753843764559721E-4</v>
+        <v>5.4187435714850858E-2</v>
       </c>
       <c r="D97">
-        <v>128780</v>
+        <v>303336</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.4">
@@ -3426,13 +3422,13 @@
         <v>48</v>
       </c>
       <c r="B98">
-        <v>6</v>
+        <v>17593</v>
       </c>
       <c r="C98">
-        <v>4.6591085572293827E-5</v>
+        <v>5.7998391222934313E-2</v>
       </c>
       <c r="D98">
-        <v>128780</v>
+        <v>303336</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.4">
@@ -3440,13 +3436,13 @@
         <v>48.5</v>
       </c>
       <c r="B99">
-        <v>15</v>
+        <v>17331</v>
       </c>
       <c r="C99">
-        <v>1.164777139307346E-4</v>
+        <v>5.7134662552417122E-2</v>
       </c>
       <c r="D99">
-        <v>128780</v>
+        <v>303336</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.4">
@@ -3454,13 +3450,13 @@
         <v>49</v>
       </c>
       <c r="B100">
-        <v>15</v>
+        <v>18806</v>
       </c>
       <c r="C100">
-        <v>1.164777139307346E-4</v>
+        <v>6.1997257166969959E-2</v>
       </c>
       <c r="D100">
-        <v>128780</v>
+        <v>303336</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.4">
@@ -3468,13 +3464,13 @@
         <v>49.5</v>
       </c>
       <c r="B101">
-        <v>10</v>
+        <v>19118</v>
       </c>
       <c r="C101">
-        <v>7.7651809287156392E-5</v>
+        <v>6.3025819553234691E-2</v>
       </c>
       <c r="D101">
-        <v>128780</v>
+        <v>303336</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.4">
@@ -3482,13 +3478,13 @@
         <v>50</v>
       </c>
       <c r="B102">
-        <v>17</v>
+        <v>17590</v>
       </c>
       <c r="C102">
-        <v>1.3200807578816589E-4</v>
+        <v>5.7988501199989453E-2</v>
       </c>
       <c r="D102">
-        <v>128780</v>
+        <v>303336</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.4">
@@ -3496,13 +3492,13 @@
         <v>50.5</v>
       </c>
       <c r="B103">
-        <v>14</v>
+        <v>16147</v>
       </c>
       <c r="C103">
-        <v>1.087125330020189E-4</v>
+        <v>5.3231400163515047E-2</v>
       </c>
       <c r="D103">
-        <v>128780</v>
+        <v>303336</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.4">
@@ -3510,13 +3506,13 @@
         <v>51</v>
       </c>
       <c r="B104">
-        <v>24</v>
+        <v>17875</v>
       </c>
       <c r="C104">
-        <v>1.8636434228917531E-4</v>
+        <v>5.892805337975051E-2</v>
       </c>
       <c r="D104">
-        <v>128780</v>
+        <v>303336</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.4">
@@ -3524,13 +3520,13 @@
         <v>51.5</v>
       </c>
       <c r="B105">
-        <v>13</v>
+        <v>15662</v>
       </c>
       <c r="C105">
-        <v>1.009473520733033E-4</v>
+        <v>5.1632513120763772E-2</v>
       </c>
       <c r="D105">
-        <v>128780</v>
+        <v>303336</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.4">
@@ -3538,13 +3534,13 @@
         <v>52</v>
       </c>
       <c r="B106">
-        <v>9</v>
+        <v>17654</v>
       </c>
       <c r="C106">
-        <v>6.9886628358440748E-5</v>
+        <v>5.8199488356146321E-2</v>
       </c>
       <c r="D106">
-        <v>128780</v>
+        <v>303336</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.4">
@@ -3552,13 +3548,13 @@
         <v>52.5</v>
       </c>
       <c r="B107">
-        <v>17</v>
+        <v>16577</v>
       </c>
       <c r="C107">
-        <v>1.3200807578816589E-4</v>
+        <v>5.4648970118944012E-2</v>
       </c>
       <c r="D107">
-        <v>128780</v>
+        <v>303336</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.4">
@@ -3566,13 +3562,13 @@
         <v>53</v>
       </c>
       <c r="B108">
-        <v>10</v>
+        <v>18083</v>
       </c>
       <c r="C108">
-        <v>7.7651809287156392E-5</v>
+        <v>5.9613761637260329E-2</v>
       </c>
       <c r="D108">
-        <v>128780</v>
+        <v>303336</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.4">
@@ -3580,13 +3576,13 @@
         <v>53.5</v>
       </c>
       <c r="B109">
-        <v>42</v>
+        <v>16404</v>
       </c>
       <c r="C109">
-        <v>3.2613759900605678E-4</v>
+        <v>5.407864546245747E-2</v>
       </c>
       <c r="D109">
-        <v>128780</v>
+        <v>303336</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.4">
@@ -3594,13 +3590,13 @@
         <v>54</v>
       </c>
       <c r="B110">
-        <v>10</v>
+        <v>17355</v>
       </c>
       <c r="C110">
-        <v>7.7651809287156392E-5</v>
+        <v>5.7213782735975938E-2</v>
       </c>
       <c r="D110">
-        <v>128780</v>
+        <v>303336</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.4">
@@ -3608,13 +3604,13 @@
         <v>54.5</v>
       </c>
       <c r="B111">
-        <v>14</v>
+        <v>16759</v>
       </c>
       <c r="C111">
-        <v>1.087125330020189E-4</v>
+        <v>5.5248964844265107E-2</v>
       </c>
       <c r="D111">
-        <v>128780</v>
+        <v>303336</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.4">
@@ -3622,13 +3618,13 @@
         <v>55</v>
       </c>
       <c r="B112">
-        <v>5</v>
+        <v>17248</v>
       </c>
       <c r="C112">
-        <v>3.8825904643578203E-5</v>
+        <v>5.6861038584276193E-2</v>
       </c>
       <c r="D112">
-        <v>128780</v>
+        <v>303336</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.4">
@@ -3636,13 +3632,13 @@
         <v>55.5</v>
       </c>
       <c r="B113">
-        <v>13</v>
+        <v>16487</v>
       </c>
       <c r="C113">
-        <v>1.009473520733033E-4</v>
+        <v>5.4352269430598413E-2</v>
       </c>
       <c r="D113">
-        <v>128780</v>
+        <v>303336</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.4">
@@ -3650,13 +3646,13 @@
         <v>56</v>
       </c>
       <c r="B114">
-        <v>10</v>
+        <v>15041</v>
       </c>
       <c r="C114">
-        <v>7.7651809287156392E-5</v>
+        <v>4.9585278371179153E-2</v>
       </c>
       <c r="D114">
-        <v>128780</v>
+        <v>303336</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.4">
@@ -3664,13 +3660,13 @@
         <v>56.5</v>
       </c>
       <c r="B115">
-        <v>14</v>
+        <v>15182</v>
       </c>
       <c r="C115">
-        <v>1.087125330020189E-4</v>
+        <v>5.0050109449587259E-2</v>
       </c>
       <c r="D115">
-        <v>128780</v>
+        <v>303336</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.4">
@@ -3678,13 +3674,13 @@
         <v>57</v>
       </c>
       <c r="B116">
-        <v>25</v>
+        <v>17639</v>
       </c>
       <c r="C116">
-        <v>1.9412952321789099E-4</v>
+        <v>5.815003824142205E-2</v>
       </c>
       <c r="D116">
-        <v>128780</v>
+        <v>303336</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.4">
@@ -3692,13 +3688,13 @@
         <v>57.5</v>
       </c>
       <c r="B117">
-        <v>2</v>
+        <v>17358</v>
       </c>
       <c r="C117">
-        <v>1.5530361857431279E-5</v>
+        <v>5.7223672758920797E-2</v>
       </c>
       <c r="D117">
-        <v>128780</v>
+        <v>303336</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.4">
@@ -3706,13 +3702,13 @@
         <v>58</v>
       </c>
       <c r="B118">
-        <v>27</v>
+        <v>17140</v>
       </c>
       <c r="C118">
-        <v>2.0965988507532231E-4</v>
+        <v>5.6504997758261469E-2</v>
       </c>
       <c r="D118">
-        <v>128780</v>
+        <v>303336</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.4">
@@ -3720,13 +3716,13 @@
         <v>58.5</v>
       </c>
       <c r="B119">
-        <v>6</v>
+        <v>16268</v>
       </c>
       <c r="C119">
-        <v>4.6591085572293827E-5</v>
+        <v>5.3630297755624133E-2</v>
       </c>
       <c r="D119">
-        <v>128780</v>
+        <v>303336</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.4">
@@ -3734,13 +3730,13 @@
         <v>59</v>
       </c>
       <c r="B120">
-        <v>15</v>
+        <v>15655</v>
       </c>
       <c r="C120">
-        <v>1.164777139307346E-4</v>
+        <v>5.1609436400559122E-2</v>
       </c>
       <c r="D120">
-        <v>128780</v>
+        <v>303336</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.4">
@@ -3748,32 +3744,19 @@
         <v>59.5</v>
       </c>
       <c r="B121">
-        <v>15</v>
+        <v>15643</v>
       </c>
       <c r="C121">
-        <v>1.164777139307346E-4</v>
+        <v>5.1569876308779697E-2</v>
       </c>
       <c r="D121">
-        <v>128780</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A122">
-        <v>60</v>
-      </c>
-      <c r="B122">
-        <v>7</v>
-      </c>
-      <c r="C122">
-        <v>5.4356266501009472E-5</v>
-      </c>
-      <c r="D122">
-        <v>128780</v>
+        <v>303336</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>